--- a/biology/Botanique/Rubus_fioniae/Rubus_fioniae.xlsx
+++ b/biology/Botanique/Rubus_fioniae/Rubus_fioniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus fioniae est une espèce de plantes à fleurs de la famille des rosacées et du genre Rubus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus fioniae a des turions arrondis, glabres pourvus d'aiguillons (environ 15 à 20 sur 5 cm). Il comporte des feuilles de trois à cinq folioles aux limbes régulièrement dentés. La foliole terminale est mince et légèrement courbée vers l’extérieur. Sa partie supérieure est verte et comporte 10 à 100 poils par cm2. Sa face inférieure est grise et pubescente au toucher.
 Les fleurs sont blanches et comportent des pétales de 10 à 15 millimètres de diamètre. L'inflorescence est feuillée jusqu'à son extrémité.
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ronce, de distribution éparse à fréquente, vit sur sol riche en nutriment, dans les fourrés et les lisières forestières.
 On le rencontre au Danemark et en Allemagne.
